--- a/spreadsheets/UseCase_HingeClones.xlsx
+++ b/spreadsheets/UseCase_HingeClones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATI\STIIMA-ITIA\PROGETTI\ErasmusPlus_VLFT\DEVS_VLFT\Usecase\Cosberg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\difactory\repository\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4A0C35-F1D0-4257-83C7-F766071CB8C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667194F9-F876-42C8-ADFA-B7E224001AF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="8895" tabRatio="484" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="8895" tabRatio="484" activeTab="1" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
   </bookViews>
   <sheets>
     <sheet name="Context" sheetId="16" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>inScene</t>
   </si>
   <si>
-    <t>http://www.ontoeng.com/factory#Artifact</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Hinge.glb</t>
+  </si>
+  <si>
+    <t>https://w3id.org/ontoeng/factory#Artifact</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8466CCB2-1EC2-4D46-B8B6-6A373A69743B}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B1" s="14" t="str">
         <f>CONCATENATE(Context!D1,B3,Context!E1,B4,Context!F1,B5,"""},",Context!G1,Assets!AU201,Context!H1,Assets!AV201,"]}")</f>
-        <v>{"context": { "UnitOfMeasureScale": 0.001,"Zup": false, "RepoPath": ""},"scene": ["Hinge_1","Hinge_2","Hinge_3"], "assets": [{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}]}</v>
+        <v>{"context": { "UnitOfMeasureScale": 0.001,"Zup": false, "RepoPath": ""},"scene": ["Hinge_1","Hinge_2","Hinge_3"], "assets": [{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}]}</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1099,12 +1099,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBE1175-FFEC-4699-8890-6AAD58990405}">
   <dimension ref="A1:AX201"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:A54"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:A54"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:A54"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1208,83 +1208,83 @@
         <v>21</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AK1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AM1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AN1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AP1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AQ1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AR1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AS1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AT1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AU1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AV1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="44">
         <v>1</v>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="AD2" s="42" t="str">
         <f>IF(D2&lt;&gt;"",CONCATENATE(", """,D$1,""": """,D2,""""),"")</f>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE2" s="42" t="str">
         <f>IF(E2&lt;&gt;"",CONCATENATE(", """,E$1,""": """,E2,""""),"")</f>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="AT2" s="42" t="str">
         <f>CONCATENATE(AB2,AC2,AD2,AE2,AF2,AG2,AH2,AI2,AJ2,AK2,AL2,AM2,AN2,AO2,AP2,AQ2,AR2,AS2)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
       </c>
       <c r="AU2" s="11" t="str">
         <f>IF(B2=1,CONCATENATE(IF(AU1&lt;&gt;"",CONCATENATE(AU1,","),""),"""",A2,""""),AU1)</f>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="AV2" s="6" t="str">
         <f>IF(A2&lt;&gt;"",CONCATENATE(IF(AV1&lt;&gt;"",CONCATENATE(AV1,","),""),AT2),AV1)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
       </c>
       <c r="AW2" s="7" t="s">
         <v>1</v>
@@ -1407,18 +1407,18 @@
     </row>
     <row r="3" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="44">
         <v>1</v>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="AD3" s="42" t="str">
         <f t="shared" ref="AD3:AD66" si="2">IF(D3&lt;&gt;"",CONCATENATE(", """,D$1,""": """,D3,""""),"")</f>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE3" s="42" t="str">
         <f t="shared" ref="AE3:AE66" si="3">IF(E3&lt;&gt;"",CONCATENATE(", """,E$1,""": """,E3,""""),"")</f>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="AT3" s="42" t="str">
         <f t="shared" ref="AT3:AT66" si="17">CONCATENATE(AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3,AP3,AQ3,AR3,AS3)</f>
-        <v>{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]}</v>
+        <v>{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]}</v>
       </c>
       <c r="AU3" s="11" t="str">
         <f t="shared" ref="AU3:AU66" si="18">IF(B3=1,CONCATENATE(IF(AU2&lt;&gt;"",CONCATENATE(AU2,","),""),"""",A3,""""),AU2)</f>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="AV3" s="6" t="str">
         <f t="shared" ref="AV3:AV66" si="19">IF(A3&lt;&gt;"",CONCATENATE(IF(AV2&lt;&gt;"",CONCATENATE(AV2,","),""),AT3),AV2)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]}</v>
       </c>
       <c r="AW3" s="7" t="s">
         <v>1</v>
@@ -1541,18 +1541,18 @@
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="44">
         <v>1</v>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="AD4" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE4" s="42" t="str">
         <f t="shared" si="3"/>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AT4" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AU4" s="11" t="str">
         <f t="shared" si="18"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="AV4" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW4" s="7" t="s">
         <v>1</v>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="AV5" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW5" s="7" t="s">
         <v>1</v>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="AV6" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW6" s="7" t="s">
         <v>1</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AV7" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW7" s="7" t="s">
         <v>1</v>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="AV8" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW8" s="7" t="s">
         <v>1</v>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="AV9" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW9" s="7" t="s">
         <v>1</v>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="AV10" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW10" s="7" t="s">
         <v>1</v>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="AV11" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW11" s="7" t="s">
         <v>1</v>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="AV12" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW12" s="7" t="s">
         <v>1</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="AV13" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW13" s="7" t="s">
         <v>1</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="AV14" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW14" s="7" t="s">
         <v>1</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="AV15" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW15" s="7" t="s">
         <v>1</v>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="AV16" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW16" s="7" t="s">
         <v>1</v>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="AV17" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW17" s="7" t="s">
         <v>1</v>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="AV18" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW18" s="7" t="s">
         <v>1</v>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="AV19" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW19" s="7" t="s">
         <v>1</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="AV20" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW20" s="7" t="s">
         <v>1</v>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="AV21" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW21" s="7" t="s">
         <v>1</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AV22" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW22" s="7" t="s">
         <v>1</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="AV23" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW23" s="7" t="s">
         <v>1</v>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="AV24" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW24" s="7" t="s">
         <v>1</v>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="AV25" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW25" s="7" t="s">
         <v>1</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="AV26" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW26" s="7" t="s">
         <v>1</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="AV27" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW27" s="7" t="s">
         <v>1</v>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="AV28" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW28" s="7" t="s">
         <v>1</v>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="AV29" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW29" s="7" t="s">
         <v>1</v>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="AV30" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW30" s="7" t="s">
         <v>1</v>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="AV31" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW31" s="7" t="s">
         <v>1</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="AV32" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW32" s="7" t="s">
         <v>1</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="AV33" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW33" s="7" t="s">
         <v>1</v>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="AV34" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW34" s="7" t="s">
         <v>1</v>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="AV35" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW35" s="7" t="s">
         <v>1</v>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="AV36" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW36" s="7" t="s">
         <v>1</v>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="AV37" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW37" s="7" t="s">
         <v>1</v>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="AV38" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW38" s="7" t="s">
         <v>1</v>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="AV39" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW39" s="7" t="s">
         <v>1</v>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="AV40" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW40" s="7" t="s">
         <v>1</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AV41" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW41" s="7" t="s">
         <v>1</v>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="AV42" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW42" s="7" t="s">
         <v>1</v>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="AV43" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW43" s="7" t="s">
         <v>1</v>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="AV44" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW44" s="7" t="s">
         <v>1</v>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="AV45" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW45" s="7" t="s">
         <v>1</v>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="AV46" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW46" s="7" t="s">
         <v>1</v>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="AV47" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW47" s="7" t="s">
         <v>1</v>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="AV48" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW48" s="7" t="s">
         <v>1</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="AV49" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW49" s="7" t="s">
         <v>1</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AV50" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW50" s="7" t="s">
         <v>1</v>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="AV51" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW51" s="7" t="s">
         <v>1</v>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="AV52" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW52" s="7" t="s">
         <v>1</v>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="AV53" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW53" s="7" t="s">
         <v>1</v>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="AV54" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW54" s="7" t="s">
         <v>1</v>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="AV55" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW55" s="7" t="s">
         <v>1</v>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="AV56" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW56" s="7" t="s">
         <v>1</v>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="AV57" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW57" s="7" t="s">
         <v>1</v>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="AV58" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW58" s="7" t="s">
         <v>1</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="AV59" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW59" s="7" t="s">
         <v>1</v>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="AV60" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW60" s="7" t="s">
         <v>1</v>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="AV61" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW61" s="7" t="s">
         <v>1</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="AV62" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW62" s="7" t="s">
         <v>1</v>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="AV63" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW63" s="7" t="s">
         <v>1</v>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="AV64" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW64" s="7" t="s">
         <v>1</v>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="AV65" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW65" s="7" t="s">
         <v>1</v>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="AV66" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW66" s="7" t="s">
         <v>1</v>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="AV67" s="6" t="str">
         <f t="shared" ref="AV67:AV130" si="39">IF(A67&lt;&gt;"",CONCATENATE(IF(AV66&lt;&gt;"",CONCATENATE(AV66,","),""),AT67),AV66)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW67" s="7" t="s">
         <v>1</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="AV68" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW68" s="7" t="s">
         <v>1</v>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="AV69" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW69" s="7" t="s">
         <v>1</v>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="AV70" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW70" s="7" t="s">
         <v>1</v>
@@ -9387,7 +9387,7 @@
       </c>
       <c r="AV71" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW71" s="7" t="s">
         <v>1</v>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="AV72" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW72" s="7" t="s">
         <v>1</v>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="AV73" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW73" s="7" t="s">
         <v>1</v>
@@ -9732,7 +9732,7 @@
       </c>
       <c r="AV74" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW74" s="7" t="s">
         <v>1</v>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="AV75" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW75" s="7" t="s">
         <v>1</v>
@@ -9962,7 +9962,7 @@
       </c>
       <c r="AV76" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW76" s="7" t="s">
         <v>1</v>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="AV77" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW77" s="7" t="s">
         <v>1</v>
@@ -10192,7 +10192,7 @@
       </c>
       <c r="AV78" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW78" s="7" t="s">
         <v>1</v>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="AV79" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW79" s="7" t="s">
         <v>1</v>
@@ -10422,7 +10422,7 @@
       </c>
       <c r="AV80" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW80" s="7" t="s">
         <v>1</v>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="AV81" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW81" s="7" t="s">
         <v>1</v>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="AV82" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW82" s="7" t="s">
         <v>1</v>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="AV83" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW83" s="7" t="s">
         <v>1</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="AV84" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW84" s="7" t="s">
         <v>1</v>
@@ -10997,7 +10997,7 @@
       </c>
       <c r="AV85" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW85" s="7" t="s">
         <v>1</v>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="AV86" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW86" s="7" t="s">
         <v>1</v>
@@ -11227,7 +11227,7 @@
       </c>
       <c r="AV87" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW87" s="7" t="s">
         <v>1</v>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="AV88" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW88" s="7" t="s">
         <v>1</v>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="AV89" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW89" s="7" t="s">
         <v>1</v>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="AV90" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW90" s="7" t="s">
         <v>1</v>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="AV91" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW91" s="7" t="s">
         <v>1</v>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="AV92" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW92" s="7" t="s">
         <v>1</v>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="AV93" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW93" s="7" t="s">
         <v>1</v>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="AV94" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW94" s="7" t="s">
         <v>1</v>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="AV95" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW95" s="7" t="s">
         <v>1</v>
@@ -12262,7 +12262,7 @@
       </c>
       <c r="AV96" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW96" s="7" t="s">
         <v>1</v>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="AV97" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW97" s="7" t="s">
         <v>1</v>
@@ -12492,7 +12492,7 @@
       </c>
       <c r="AV98" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW98" s="7" t="s">
         <v>1</v>
@@ -12607,7 +12607,7 @@
       </c>
       <c r="AV99" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW99" s="7" t="s">
         <v>1</v>
@@ -12722,7 +12722,7 @@
       </c>
       <c r="AV100" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW100" s="7" t="s">
         <v>1</v>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="AV101" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW101" s="7" t="s">
         <v>1</v>
@@ -12952,7 +12952,7 @@
       </c>
       <c r="AV102" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW102" s="7" t="s">
         <v>1</v>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="AV103" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW103" s="7" t="s">
         <v>1</v>
@@ -13182,7 +13182,7 @@
       </c>
       <c r="AV104" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW104" s="7" t="s">
         <v>1</v>
@@ -13297,7 +13297,7 @@
       </c>
       <c r="AV105" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW105" s="7" t="s">
         <v>1</v>
@@ -13412,7 +13412,7 @@
       </c>
       <c r="AV106" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW106" s="7" t="s">
         <v>1</v>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="AV107" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW107" s="7" t="s">
         <v>1</v>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="AV108" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW108" s="7" t="s">
         <v>1</v>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="AV109" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW109" s="7" t="s">
         <v>1</v>
@@ -13872,7 +13872,7 @@
       </c>
       <c r="AV110" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW110" s="7" t="s">
         <v>1</v>
@@ -13987,7 +13987,7 @@
       </c>
       <c r="AV111" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW111" s="7" t="s">
         <v>1</v>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="AV112" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW112" s="7" t="s">
         <v>1</v>
@@ -14217,7 +14217,7 @@
       </c>
       <c r="AV113" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW113" s="7" t="s">
         <v>1</v>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="AV114" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW114" s="7" t="s">
         <v>1</v>
@@ -14447,7 +14447,7 @@
       </c>
       <c r="AV115" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW115" s="7" t="s">
         <v>1</v>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="AV116" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW116" s="7" t="s">
         <v>1</v>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="AV117" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW117" s="7" t="s">
         <v>1</v>
@@ -14792,7 +14792,7 @@
       </c>
       <c r="AV118" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW118" s="7" t="s">
         <v>1</v>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="AV119" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW119" s="7" t="s">
         <v>1</v>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="AV120" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW120" s="7" t="s">
         <v>1</v>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="AV121" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW121" s="7" t="s">
         <v>1</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="AV122" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW122" s="7" t="s">
         <v>1</v>
@@ -15367,7 +15367,7 @@
       </c>
       <c r="AV123" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW123" s="7" t="s">
         <v>1</v>
@@ -15482,7 +15482,7 @@
       </c>
       <c r="AV124" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW124" s="7" t="s">
         <v>1</v>
@@ -15597,7 +15597,7 @@
       </c>
       <c r="AV125" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW125" s="7" t="s">
         <v>1</v>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="AV126" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW126" s="7" t="s">
         <v>1</v>
@@ -15827,7 +15827,7 @@
       </c>
       <c r="AV127" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW127" s="7" t="s">
         <v>1</v>
@@ -15942,7 +15942,7 @@
       </c>
       <c r="AV128" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW128" s="7" t="s">
         <v>1</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="AV129" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW129" s="7" t="s">
         <v>1</v>
@@ -16172,7 +16172,7 @@
       </c>
       <c r="AV130" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW130" s="7" t="s">
         <v>1</v>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="AV131" s="6" t="str">
         <f t="shared" ref="AV131:AV194" si="59">IF(A131&lt;&gt;"",CONCATENATE(IF(AV130&lt;&gt;"",CONCATENATE(AV130,","),""),AT131),AV130)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW131" s="7" t="s">
         <v>1</v>
@@ -16402,7 +16402,7 @@
       </c>
       <c r="AV132" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW132" s="7" t="s">
         <v>1</v>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="AV133" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW133" s="7" t="s">
         <v>1</v>
@@ -16632,7 +16632,7 @@
       </c>
       <c r="AV134" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW134" s="7" t="s">
         <v>1</v>
@@ -16747,7 +16747,7 @@
       </c>
       <c r="AV135" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW135" s="7" t="s">
         <v>1</v>
@@ -16862,7 +16862,7 @@
       </c>
       <c r="AV136" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW136" s="7" t="s">
         <v>1</v>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="AV137" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW137" s="7" t="s">
         <v>1</v>
@@ -17092,7 +17092,7 @@
       </c>
       <c r="AV138" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW138" s="7" t="s">
         <v>1</v>
@@ -17207,7 +17207,7 @@
       </c>
       <c r="AV139" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW139" s="7" t="s">
         <v>1</v>
@@ -17322,7 +17322,7 @@
       </c>
       <c r="AV140" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW140" s="7" t="s">
         <v>1</v>
@@ -17437,7 +17437,7 @@
       </c>
       <c r="AV141" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW141" s="7" t="s">
         <v>1</v>
@@ -17552,7 +17552,7 @@
       </c>
       <c r="AV142" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW142" s="7" t="s">
         <v>1</v>
@@ -17667,7 +17667,7 @@
       </c>
       <c r="AV143" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW143" s="7" t="s">
         <v>1</v>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="AV144" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW144" s="7" t="s">
         <v>1</v>
@@ -17897,7 +17897,7 @@
       </c>
       <c r="AV145" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW145" s="7" t="s">
         <v>1</v>
@@ -18012,7 +18012,7 @@
       </c>
       <c r="AV146" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW146" s="7" t="s">
         <v>1</v>
@@ -18127,7 +18127,7 @@
       </c>
       <c r="AV147" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW147" s="7" t="s">
         <v>1</v>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="AV148" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW148" s="7" t="s">
         <v>1</v>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="AV149" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW149" s="7" t="s">
         <v>1</v>
@@ -18472,7 +18472,7 @@
       </c>
       <c r="AV150" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW150" s="7" t="s">
         <v>1</v>
@@ -18587,7 +18587,7 @@
       </c>
       <c r="AV151" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW151" s="7" t="s">
         <v>1</v>
@@ -18702,7 +18702,7 @@
       </c>
       <c r="AV152" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW152" s="7" t="s">
         <v>1</v>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="AV153" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW153" s="7" t="s">
         <v>1</v>
@@ -18932,7 +18932,7 @@
       </c>
       <c r="AV154" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW154" s="7" t="s">
         <v>1</v>
@@ -19047,7 +19047,7 @@
       </c>
       <c r="AV155" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW155" s="7" t="s">
         <v>1</v>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="AV156" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW156" s="7" t="s">
         <v>1</v>
@@ -19277,7 +19277,7 @@
       </c>
       <c r="AV157" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW157" s="7" t="s">
         <v>1</v>
@@ -19392,7 +19392,7 @@
       </c>
       <c r="AV158" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW158" s="7" t="s">
         <v>1</v>
@@ -19507,7 +19507,7 @@
       </c>
       <c r="AV159" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW159" s="7" t="s">
         <v>1</v>
@@ -19622,7 +19622,7 @@
       </c>
       <c r="AV160" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW160" s="7" t="s">
         <v>1</v>
@@ -19737,7 +19737,7 @@
       </c>
       <c r="AV161" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW161" s="7" t="s">
         <v>1</v>
@@ -19852,7 +19852,7 @@
       </c>
       <c r="AV162" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW162" s="7" t="s">
         <v>1</v>
@@ -19967,7 +19967,7 @@
       </c>
       <c r="AV163" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW163" s="7" t="s">
         <v>1</v>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="AV164" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW164" s="7" t="s">
         <v>1</v>
@@ -20197,7 +20197,7 @@
       </c>
       <c r="AV165" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW165" s="7" t="s">
         <v>1</v>
@@ -20312,7 +20312,7 @@
       </c>
       <c r="AV166" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW166" s="7" t="s">
         <v>1</v>
@@ -20427,7 +20427,7 @@
       </c>
       <c r="AV167" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW167" s="7" t="s">
         <v>1</v>
@@ -20542,7 +20542,7 @@
       </c>
       <c r="AV168" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW168" s="7" t="s">
         <v>1</v>
@@ -20657,7 +20657,7 @@
       </c>
       <c r="AV169" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW169" s="7" t="s">
         <v>1</v>
@@ -20772,7 +20772,7 @@
       </c>
       <c r="AV170" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW170" s="7" t="s">
         <v>1</v>
@@ -20887,7 +20887,7 @@
       </c>
       <c r="AV171" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW171" s="7" t="s">
         <v>1</v>
@@ -21002,7 +21002,7 @@
       </c>
       <c r="AV172" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW172" s="7" t="s">
         <v>1</v>
@@ -21117,7 +21117,7 @@
       </c>
       <c r="AV173" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW173" s="7" t="s">
         <v>1</v>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="AV174" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW174" s="7" t="s">
         <v>1</v>
@@ -21347,7 +21347,7 @@
       </c>
       <c r="AV175" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW175" s="7" t="s">
         <v>1</v>
@@ -21462,7 +21462,7 @@
       </c>
       <c r="AV176" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW176" s="7" t="s">
         <v>1</v>
@@ -21577,7 +21577,7 @@
       </c>
       <c r="AV177" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW177" s="7" t="s">
         <v>1</v>
@@ -21692,7 +21692,7 @@
       </c>
       <c r="AV178" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW178" s="7" t="s">
         <v>1</v>
@@ -21807,7 +21807,7 @@
       </c>
       <c r="AV179" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW179" s="7" t="s">
         <v>1</v>
@@ -21922,7 +21922,7 @@
       </c>
       <c r="AV180" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW180" s="7" t="s">
         <v>1</v>
@@ -22037,7 +22037,7 @@
       </c>
       <c r="AV181" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW181" s="7" t="s">
         <v>1</v>
@@ -22152,7 +22152,7 @@
       </c>
       <c r="AV182" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW182" s="7" t="s">
         <v>1</v>
@@ -22267,7 +22267,7 @@
       </c>
       <c r="AV183" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW183" s="7" t="s">
         <v>1</v>
@@ -22382,7 +22382,7 @@
       </c>
       <c r="AV184" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW184" s="7" t="s">
         <v>1</v>
@@ -22497,7 +22497,7 @@
       </c>
       <c r="AV185" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW185" s="7" t="s">
         <v>1</v>
@@ -22612,7 +22612,7 @@
       </c>
       <c r="AV186" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW186" s="7" t="s">
         <v>1</v>
@@ -22727,7 +22727,7 @@
       </c>
       <c r="AV187" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW187" s="7" t="s">
         <v>1</v>
@@ -22842,7 +22842,7 @@
       </c>
       <c r="AV188" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW188" s="7" t="s">
         <v>1</v>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="AV189" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW189" s="7" t="s">
         <v>1</v>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="AV190" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW190" s="7" t="s">
         <v>1</v>
@@ -23187,7 +23187,7 @@
       </c>
       <c r="AV191" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW191" s="7" t="s">
         <v>1</v>
@@ -23302,7 +23302,7 @@
       </c>
       <c r="AV192" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW192" s="7" t="s">
         <v>1</v>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="AV193" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW193" s="7" t="s">
         <v>1</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="AV194" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW194" s="7" t="s">
         <v>1</v>
@@ -23647,7 +23647,7 @@
       </c>
       <c r="AV195" s="6" t="str">
         <f t="shared" ref="AV195:AV201" si="79">IF(A195&lt;&gt;"",CONCATENATE(IF(AV194&lt;&gt;"",CONCATENATE(AV194,","),""),AT195),AV194)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW195" s="7" t="s">
         <v>1</v>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="AV196" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW196" s="7" t="s">
         <v>1</v>
@@ -23877,7 +23877,7 @@
       </c>
       <c r="AV197" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW197" s="7" t="s">
         <v>1</v>
@@ -23992,7 +23992,7 @@
       </c>
       <c r="AV198" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW198" s="7" t="s">
         <v>1</v>
@@ -24107,7 +24107,7 @@
       </c>
       <c r="AV199" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW199" s="7" t="s">
         <v>1</v>
@@ -24222,7 +24222,7 @@
       </c>
       <c r="AV200" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW200" s="7" t="s">
         <v>1</v>
@@ -24337,7 +24337,7 @@
       </c>
       <c r="AV201" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [200,0,0]}</v>
       </c>
       <c r="AW201" s="7" t="s">
         <v>1</v>
